--- a/public/uploads/sample-excel.xlsx
+++ b/public/uploads/sample-excel.xlsx
@@ -589,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -729,6 +729,9 @@
     </xf>
     <xf borderId="5" fillId="0" fontId="5" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
@@ -3187,7 +3190,7 @@
       <c r="A49" s="10">
         <v>184.0</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="48">
         <v>44.0</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -3274,7 +3277,7 @@
       <c r="AE50" s="2"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="49" t="s">
         <v>111</v>
       </c>
       <c r="B51" s="18"/>
@@ -3284,24 +3287,24 @@
       <c r="F51" s="20">
         <v>14.0</v>
       </c>
-      <c r="G51" s="49">
+      <c r="G51" s="50">
         <v>36882.0</v>
       </c>
       <c r="H51" s="14"/>
-      <c r="I51" s="49">
+      <c r="I51" s="50">
         <v>36882.0</v>
       </c>
       <c r="J51" s="14"/>
-      <c r="K51" s="50">
+      <c r="K51" s="51">
         <v>982488.0</v>
       </c>
-      <c r="L51" s="51">
+      <c r="L51" s="52">
         <v>13379.85</v>
       </c>
-      <c r="M51" s="52">
+      <c r="M51" s="53">
         <v>78769.23</v>
       </c>
-      <c r="N51" s="53">
+      <c r="N51" s="54">
         <v>807040.57</v>
       </c>
       <c r="O51" s="20">
